--- a/biology/Zoologie/Henricia_leviuscula/Henricia_leviuscula.xlsx
+++ b/biology/Zoologie/Henricia_leviuscula/Henricia_leviuscula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henricia leviuscula est une espèce d'étoile de mer, de la famille des Echinasteridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une étoile de mer régulière très caractéristique, de couleur orange ou rouge vif avec un disque central réduit et cinq bras (rarement 4 ou 6) fins et allongés se terminant en pointe légèrement relevée. Elle mesure entre 10 et 12 cm de diamètre à l'âge adulte. Sa surface est légèrement rugueuse au toucher. La face orale (inférieure) est plus claire, chaque bras étant parcouru par un fin sillon ambulacraire[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une étoile de mer régulière très caractéristique, de couleur orange ou rouge vif avec un disque central réduit et cinq bras (rarement 4 ou 6) fins et allongés se terminant en pointe légèrement relevée. Elle mesure entre 10 et 12 cm de diamètre à l'âge adulte. Sa surface est légèrement rugueuse au toucher. La face orale (inférieure) est plus claire, chaque bras étant parcouru par un fin sillon ambulacraire.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette étoile se trouve sur les fonds rocheux des côtes pacifiques des États-Unis[2] et du Mexique, mais est aussi trouvée jusqu'au Japon[1].
-Cette étoile vit souvent dissimulée pendant la journée à l'ombre des rochers, dans des grottes ou des anfractuosités[3].
-On la rencontre de la surface à plus de 400[3] voire 400 m de profondeur[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette étoile se trouve sur les fonds rocheux des côtes pacifiques des États-Unis et du Mexique, mais est aussi trouvée jusqu'au Japon.
+Cette étoile vit souvent dissimulée pendant la journée à l'ombre des rochers, dans des grottes ou des anfractuosités.
+On la rencontre de la surface à plus de 400 voire 400 m de profondeur.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette étoile se nourrit soit de feutrage algal ou bactérien, qu'elle achemine à sa bouche grâce aux nombreux podia de ses sillons ambulacraires, soit en dévaginant son estomac directement, notamment sur des éponges[3].
-Cette étoile vit parfois en symbiose avec le ver Arctonoe vittata[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette étoile se nourrit soit de feutrage algal ou bactérien, qu'elle achemine à sa bouche grâce aux nombreux podia de ses sillons ambulacraires, soit en dévaginant son estomac directement, notamment sur des éponges.
+Cette étoile vit parfois en symbiose avec le ver Arctonoe vittata.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (26 mai 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (26 mai 2010) :
 sous-espèce Henricia leviuscula annectens Fisher, 1910
 sous-espèce Henricia leviuscula leviuscula (Stimpson, 1857)
 sous-espèce Henricia leviuscula spiculifera (H.L.Clark, 1901)</t>
